--- a/Data/murder(2016-2021)/motives _regenerated/Motive(2016-2021)ref.xlsx
+++ b/Data/murder(2016-2021)/motives _regenerated/Motive(2016-2021)ref.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Motive(2016)ref" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="160">
   <si>
     <t>S. No.</t>
   </si>
@@ -483,6 +483,27 @@
   </si>
   <si>
     <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Region Pop(in_bill)</t>
+  </si>
+  <si>
+    <t>Love_adg</t>
+  </si>
+  <si>
+    <t>Loath_adg</t>
+  </si>
+  <si>
+    <t>Greed_adg</t>
+  </si>
+  <si>
+    <t>Loath_Reg</t>
+  </si>
+  <si>
+    <t>Greed_Reg</t>
+  </si>
+  <si>
+    <t>Love_adj</t>
   </si>
 </sst>
 </file>
@@ -1289,15 +1310,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="29" max="29" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1382,8 +1406,20 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1468,8 +1504,23 @@
       <c r="AB2">
         <v>154</v>
       </c>
+      <c r="AC2">
+        <v>1.768</v>
+      </c>
+      <c r="AD2">
+        <f>Y2/AC2</f>
+        <v>120.47511312217195</v>
+      </c>
+      <c r="AE2">
+        <f>Z2/AC2</f>
+        <v>50.339366515837106</v>
+      </c>
+      <c r="AF2">
+        <f>AB2/AC2</f>
+        <v>87.104072398190041</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1554,8 +1605,23 @@
       <c r="AB3">
         <v>7</v>
       </c>
+      <c r="AC3">
+        <v>0.31</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD37" si="0">Y3/AC3</f>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE37" si="1">Z3/AC3</f>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF37" si="2">AB3/AC3</f>
+        <v>22.580645161290324</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1640,8 +1706,23 @@
       <c r="AB4">
         <v>70</v>
       </c>
+      <c r="AC4">
+        <v>0.31</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>1796.7741935483871</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="1"/>
+        <v>996.77419354838707</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="2"/>
+        <v>225.80645161290323</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1726,8 +1807,23 @@
       <c r="AB5">
         <v>390</v>
       </c>
+      <c r="AC5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>1008.7719298245613</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>335.83959899749374</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="2"/>
+        <v>244.36090225563908</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1812,8 +1908,23 @@
       <c r="AB6">
         <v>133</v>
       </c>
+      <c r="AC6">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>55.710306406685241</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>63.602599814298983</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>61.745589600742804</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1898,8 +2009,23 @@
       <c r="AB7">
         <v>6</v>
       </c>
+      <c r="AC7">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>5.7899090157154669</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>9.0984284532671627</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>4.9627791563275432</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1984,8 +2110,23 @@
       <c r="AB8">
         <v>202</v>
       </c>
+      <c r="AC8">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>167.90736145574854</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>209.26385442514473</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>167.08023159636062</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2070,8 +2211,23 @@
       <c r="AB9">
         <v>69</v>
       </c>
+      <c r="AC9">
+        <v>1.024</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>207.03125</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>251.953125</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>67.3828125</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2156,8 +2312,23 @@
       <c r="AB10">
         <v>13</v>
       </c>
+      <c r="AC10">
+        <v>1.024</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>10.7421875</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>12.6953125</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>12.6953125</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2242,8 +2413,23 @@
       <c r="AB11">
         <v>6</v>
       </c>
+      <c r="AC11">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>7.518796992481203</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>3.7593984962406015</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2328,8 +2514,23 @@
       <c r="AB12">
         <v>85</v>
       </c>
+      <c r="AC12">
+        <v>1.768</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>483.03167420814481</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="1"/>
+        <v>276.58371040723983</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>48.076923076923073</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2414,8 +2615,23 @@
       <c r="AB13">
         <v>143</v>
       </c>
+      <c r="AC13">
+        <v>1.768</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="0"/>
+        <v>143.09954751131221</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>156.10859728506787</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>80.882352941176464</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2500,8 +2716,23 @@
       <c r="AB14">
         <v>19</v>
       </c>
+      <c r="AC14">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>20.891364902506965</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>61.281337047353766</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>8.8207985143918304</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2586,8 +2817,23 @@
       <c r="AB15">
         <v>310</v>
       </c>
+      <c r="AC15">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>329.1976840363937</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>348.22167080231594</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>256.41025641025641</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2672,8 +2918,23 @@
       <c r="AB16">
         <v>292</v>
       </c>
+      <c r="AC16">
+        <v>0.31</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="0"/>
+        <v>1109.6774193548388</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>954.83870967741939</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>941.9354838709678</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2758,8 +3019,23 @@
       <c r="AB17">
         <v>2</v>
       </c>
+      <c r="AC17">
+        <v>0.31</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="0"/>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="1"/>
+        <v>51.612903225806456</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258069</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2844,8 +3120,23 @@
       <c r="AB18">
         <v>4</v>
       </c>
+      <c r="AC18">
+        <v>0.31</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="0"/>
+        <v>70.967741935483872</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>87.096774193548384</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="2"/>
+        <v>12.903225806451614</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2930,8 +3221,23 @@
       <c r="AB19">
         <v>5</v>
       </c>
+      <c r="AC19">
+        <v>0.31</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="0"/>
+        <v>67.741935483870975</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>16.129032258064516</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3016,8 +3322,23 @@
       <c r="AB20">
         <v>0</v>
       </c>
+      <c r="AC20">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="0"/>
+        <v>8.7719298245614024</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="1"/>
+        <v>6.2656641604010019</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3102,8 +3423,23 @@
       <c r="AB21">
         <v>62</v>
       </c>
+      <c r="AC21">
+        <v>1.024</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="0"/>
+        <v>407.2265625</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="1"/>
+        <v>154.296875</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>60.546875</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3188,8 +3524,23 @@
       <c r="AB22">
         <v>107</v>
       </c>
+      <c r="AC22">
+        <v>1.024</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="0"/>
+        <v>93.75</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="2"/>
+        <v>104.4921875</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3274,8 +3625,23 @@
       <c r="AB23">
         <v>47</v>
       </c>
+      <c r="AC23">
+        <v>0.31</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="0"/>
+        <v>341.93548387096774</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="1"/>
+        <v>96.774193548387103</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="2"/>
+        <v>151.61290322580646</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3360,8 +3726,23 @@
       <c r="AB24">
         <v>3</v>
       </c>
+      <c r="AC24">
+        <v>1.768</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="0"/>
+        <v>5.0904977375565608</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="1"/>
+        <v>1.6968325791855203</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>1.6968325791855203</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3446,8 +3827,23 @@
       <c r="AB25">
         <v>308</v>
       </c>
+      <c r="AC25">
+        <v>1.768</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="0"/>
+        <v>162.33031674208144</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="1"/>
+        <v>282.23981900452486</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="2"/>
+        <v>174.20814479638008</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3532,8 +3928,23 @@
       <c r="AB26">
         <v>121</v>
       </c>
+      <c r="AC26">
+        <v>0.31</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="0"/>
+        <v>735.48387096774195</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="1"/>
+        <v>538.70967741935488</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="2"/>
+        <v>390.32258064516128</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3618,8 +4029,23 @@
       <c r="AB27">
         <v>10</v>
       </c>
+      <c r="AC27">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="0"/>
+        <v>16.24883936861653</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="1"/>
+        <v>3.2497678737233056</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="2"/>
+        <v>4.6425255338904368</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3704,8 +4130,23 @@
       <c r="AB28">
         <v>752</v>
       </c>
+      <c r="AC28">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="0"/>
+        <v>714.48467966573821</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="1"/>
+        <v>850.04642525533893</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="2"/>
+        <v>349.11792014856081</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3790,8 +4231,23 @@
       <c r="AB29">
         <v>27</v>
       </c>
+      <c r="AC29">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="0"/>
+        <v>50.751879699248114</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="1"/>
+        <v>1.8796992481203008</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="2"/>
+        <v>16.917293233082706</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3876,8 +4332,23 @@
       <c r="AB30">
         <v>30</v>
       </c>
+      <c r="AC30">
+        <v>1.768</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="0"/>
+        <v>281.10859728506784</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="1"/>
+        <v>182.69230769230768</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="2"/>
+        <v>16.968325791855204</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3962,8 +4433,23 @@
       <c r="AB31">
         <v>4</v>
       </c>
+      <c r="AC31">
+        <v>1.024</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="0"/>
+        <v>1.953125</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="1"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="2"/>
+        <v>3.90625</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4048,8 +4534,23 @@
       <c r="AB32">
         <v>4</v>
       </c>
+      <c r="AC32">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="0"/>
+        <v>2.4813895781637716</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="2"/>
+        <v>3.3085194375516953</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4134,8 +4635,23 @@
       <c r="AB33">
         <v>1</v>
       </c>
+      <c r="AC33">
+        <v>1.024</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="0"/>
+        <v>2.9296875</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="2"/>
+        <v>0.9765625</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4220,8 +4736,23 @@
       <c r="AB34">
         <v>0</v>
       </c>
+      <c r="AC34">
+        <v>1.024</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="1"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4306,8 +4837,23 @@
       <c r="AB35">
         <v>41</v>
       </c>
+      <c r="AC35">
+        <v>1.024</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="0"/>
+        <v>57.6171875</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="1"/>
+        <v>51.7578125</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="2"/>
+        <v>40.0390625</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4392,8 +4938,23 @@
       <c r="AB36">
         <v>0</v>
       </c>
+      <c r="AC36">
+        <v>1.768</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4477,6 +5038,21 @@
       </c>
       <c r="AB37">
         <v>2</v>
+      </c>
+      <c r="AC37">
+        <v>1.768</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="0"/>
+        <v>1.6968325791855203</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="1"/>
+        <v>5.6561085972850682</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="2"/>
+        <v>1.1312217194570136</v>
       </c>
     </row>
   </sheetData>
@@ -4486,15 +5062,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView topLeftCell="S10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="34" max="34" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -4594,8 +5173,20 @@
       <c r="AG1" t="s">
         <v>24</v>
       </c>
+      <c r="AH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4699,8 +5290,23 @@
         <f>D2+G2+J2+N2+R2+S2+U2+AA2</f>
         <v>230</v>
       </c>
+      <c r="AH2">
+        <v>1.768</v>
+      </c>
+      <c r="AI2">
+        <f>AD2/AH2</f>
+        <v>110.29411764705883</v>
+      </c>
+      <c r="AJ2">
+        <f>AE2/AH2</f>
+        <v>193.43891402714931</v>
+      </c>
+      <c r="AK2">
+        <f>AG2/AH2</f>
+        <v>130.09049773755655</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4804,8 +5410,23 @@
         <f t="shared" ref="AG3:AG37" si="3">D3+G3+J3+N3+R3+S3+U3+AA3</f>
         <v>1</v>
       </c>
+      <c r="AH3">
+        <v>0.31</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI37" si="4">AD3/AH3</f>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ37" si="5">AE3/AH3</f>
+        <v>45.161290322580648</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK37" si="6">AG3/AH3</f>
+        <v>3.2258064516129035</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4909,8 +5530,23 @@
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
+      <c r="AH4">
+        <v>0.31</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="4"/>
+        <v>135.48387096774195</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="5"/>
+        <v>1283.8709677419356</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="6"/>
+        <v>1070.9677419354839</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5014,8 +5650,23 @@
         <f t="shared" si="3"/>
         <v>1667</v>
       </c>
+      <c r="AH5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="4"/>
+        <v>261.90476190476187</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="5"/>
+        <v>417.91979949874684</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="6"/>
+        <v>1044.4862155388471</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5119,8 +5770,23 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
+      <c r="AH6">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="4"/>
+        <v>44.568245125348191</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="5"/>
+        <v>117.45589600742805</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="6"/>
+        <v>45.961002785515319</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5224,8 +5890,23 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="AH7">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="4"/>
+        <v>0.82712985938792383</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="5"/>
+        <v>14.061207609594705</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="6"/>
+        <v>3.3085194375516953</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5329,8 +6010,23 @@
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
+      <c r="AH8">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="4"/>
+        <v>142.26633581472291</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="5"/>
+        <v>410.25641025641022</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="6"/>
+        <v>135.64929693961952</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5434,8 +6130,23 @@
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
+      <c r="AH9">
+        <v>1.024</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="4"/>
+        <v>61.5234375</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="5"/>
+        <v>346.6796875</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="6"/>
+        <v>186.5234375</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5539,8 +6250,23 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
+      <c r="AH10">
+        <v>1.024</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="4"/>
+        <v>18.5546875</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="5"/>
+        <v>35.15625</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="6"/>
+        <v>31.25</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5644,8 +6370,23 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
+      <c r="AH11">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="4"/>
+        <v>4.3859649122807012</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="5"/>
+        <v>57.644110275689222</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="6"/>
+        <v>8.7719298245614024</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5749,8 +6490,23 @@
         <f t="shared" si="3"/>
         <v>643</v>
       </c>
+      <c r="AH12">
+        <v>1.768</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="4"/>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="5"/>
+        <v>186.65158371040724</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="6"/>
+        <v>363.68778280542983</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5854,8 +6610,23 @@
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
+      <c r="AH13">
+        <v>1.768</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="4"/>
+        <v>97.285067873303163</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="5"/>
+        <v>329.75113122171945</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="6"/>
+        <v>187.21719457013575</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5959,8 +6730,23 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
+      <c r="AH14">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="4"/>
+        <v>10.677808727948005</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="5"/>
+        <v>93.314763231197773</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="6"/>
+        <v>19.034354688950788</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6064,8 +6850,23 @@
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
+      <c r="AH15">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="4"/>
+        <v>224.97932175351528</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="5"/>
+        <v>689.82630272952849</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="6"/>
+        <v>257.23738626964433</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6169,8 +6970,23 @@
         <f t="shared" si="3"/>
         <v>446</v>
       </c>
+      <c r="AH16">
+        <v>0.31</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="4"/>
+        <v>1180.6451612903227</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="5"/>
+        <v>2335.483870967742</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="6"/>
+        <v>1438.7096774193549</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6274,8 +7090,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH17">
+        <v>0.31</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="5"/>
+        <v>77.41935483870968</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6379,8 +7210,23 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
+      <c r="AH18">
+        <v>0.31</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="5"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="6"/>
+        <v>32.258064516129032</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6484,8 +7330,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH19">
+        <v>0.31</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="4"/>
+        <v>12.903225806451614</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="5"/>
+        <v>25.806451612903228</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6589,8 +7450,23 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="AH20">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="4"/>
+        <v>1.2531328320802004</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="5"/>
+        <v>5.6390977443609023</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="6"/>
+        <v>2.5062656641604009</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6694,8 +7570,23 @@
         <f t="shared" si="3"/>
         <v>535</v>
       </c>
+      <c r="AH21">
+        <v>1.024</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="4"/>
+        <v>56.640625</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="5"/>
+        <v>110.3515625</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="6"/>
+        <v>522.4609375</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6799,8 +7690,23 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
+      <c r="AH22">
+        <v>1.024</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="4"/>
+        <v>103.515625</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="5"/>
+        <v>291.015625</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="6"/>
+        <v>108.3984375</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6904,8 +7810,23 @@
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
+      <c r="AH23">
+        <v>0.31</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="4"/>
+        <v>241.93548387096774</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="5"/>
+        <v>558.06451612903231</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="6"/>
+        <v>403.22580645161293</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7009,8 +7930,23 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="AH24">
+        <v>1.768</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="4"/>
+        <v>0.56561085972850678</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="5"/>
+        <v>3.3936651583710407</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="6"/>
+        <v>0.56561085972850678</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7114,8 +8050,23 @@
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
+      <c r="AH25">
+        <v>1.768</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="4"/>
+        <v>143.66515837104072</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="5"/>
+        <v>514.14027149321271</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="6"/>
+        <v>166.28959276018099</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7219,8 +8170,23 @@
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
+      <c r="AH26">
+        <v>0.31</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="4"/>
+        <v>374.19354838709677</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="5"/>
+        <v>1038.7096774193549</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="6"/>
+        <v>622.58064516129036</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7324,8 +8290,23 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
+      <c r="AH27">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="4"/>
+        <v>2.3212627669452184</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="5"/>
+        <v>16.24883936861653</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="6"/>
+        <v>20.891364902506965</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7429,8 +8410,23 @@
         <f t="shared" si="3"/>
         <v>747</v>
       </c>
+      <c r="AH28">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="4"/>
+        <v>238.62581244196843</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="5"/>
+        <v>1017.1773444753946</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="6"/>
+        <v>346.7966573816156</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7534,8 +8530,23 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
+      <c r="AH29">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="4"/>
+        <v>10.651629072681704</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="5"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="6"/>
+        <v>34.461152882205511</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7639,8 +8650,23 @@
         <f t="shared" si="3"/>
         <v>386</v>
       </c>
+      <c r="AH30">
+        <v>1.768</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="4"/>
+        <v>19.796380090497738</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="5"/>
+        <v>131.78733031674207</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="6"/>
+        <v>218.32579185520362</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7744,8 +8770,23 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="AH31">
+        <v>1.024</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="5"/>
+        <v>4.8828125</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="6"/>
+        <v>2.9296875</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7849,8 +8890,23 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="AH32">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="4"/>
+        <v>2.4813895781637716</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="5"/>
+        <v>9.9255583126550864</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="6"/>
+        <v>1.6542597187758477</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7954,8 +9010,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH33">
+        <v>1.024</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="5"/>
+        <v>1.953125</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8059,8 +9130,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH34">
+        <v>1.024</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="4"/>
+        <v>2.9296875</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="5"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8164,8 +9250,23 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
+      <c r="AH35">
+        <v>1.024</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="4"/>
+        <v>51.7578125</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="5"/>
+        <v>212.890625</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="6"/>
+        <v>86.9140625</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8269,8 +9370,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH36">
+        <v>1.768</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8373,6 +9489,21 @@
       <c r="AG37">
         <f t="shared" si="3"/>
         <v>11</v>
+      </c>
+      <c r="AH37">
+        <v>1.768</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="4"/>
+        <v>1.1312217194570136</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="5"/>
+        <v>6.2217194570135748</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="6"/>
+        <v>6.2217194570135748</v>
       </c>
     </row>
   </sheetData>
@@ -8382,15 +9513,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AG37"/>
+    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="34" max="34" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -8490,8 +9624,20 @@
       <c r="AG1" t="s">
         <v>24</v>
       </c>
+      <c r="AH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8595,8 +9741,23 @@
         <f>D2+G2+J2+N2+R2+S2+U2+AA2</f>
         <v>181</v>
       </c>
+      <c r="AH2">
+        <v>1.768</v>
+      </c>
+      <c r="AI2">
+        <f>AD2/AH2</f>
+        <v>25.452488687782804</v>
+      </c>
+      <c r="AJ2">
+        <f>AE2/AH2</f>
+        <v>211.53846153846155</v>
+      </c>
+      <c r="AK2">
+        <f>AG2/AH2</f>
+        <v>102.37556561085972</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8700,8 +9861,23 @@
         <f t="shared" ref="AG3:AG37" si="3">D3+G3+J3+N3+R3+S3+U3+AA3</f>
         <v>0</v>
       </c>
+      <c r="AH3">
+        <v>0.31</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI37" si="4">AD3/AH3</f>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ37" si="5">AE3/AH3</f>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK37" si="6">AG3/AH3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8805,8 +9981,23 @@
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
+      <c r="AH4">
+        <v>0.31</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="4"/>
+        <v>274.19354838709677</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="5"/>
+        <v>1303.2258064516129</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="6"/>
+        <v>651.61290322580646</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8910,8 +10101,23 @@
         <f t="shared" si="3"/>
         <v>1596</v>
       </c>
+      <c r="AH5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="4"/>
+        <v>273.18295739348372</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="5"/>
+        <v>484.3358395989975</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9015,8 +10221,23 @@
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
+      <c r="AH6">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="4"/>
+        <v>38.532961931290622</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="5"/>
+        <v>123.49117920148561</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="6"/>
+        <v>45.496750232126281</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9120,8 +10341,23 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="AH7">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="4"/>
+        <v>0.82712985938792383</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="5"/>
+        <v>14.888337468982629</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="6"/>
+        <v>4.9627791563275432</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9225,8 +10461,23 @@
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
+      <c r="AH8">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="4"/>
+        <v>214.22663358147227</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="5"/>
+        <v>444.16873449131509</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="6"/>
+        <v>145.5748552522746</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9330,8 +10581,23 @@
         <f t="shared" si="3"/>
         <v>278</v>
       </c>
+      <c r="AH9">
+        <v>1.024</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="4"/>
+        <v>107.421875</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="5"/>
+        <v>423.828125</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="6"/>
+        <v>271.484375</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9435,8 +10701,23 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
+      <c r="AH10">
+        <v>1.024</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="4"/>
+        <v>11.71875</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="5"/>
+        <v>24.4140625</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="6"/>
+        <v>14.6484375</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9540,8 +10821,23 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
+      <c r="AH11">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="4"/>
+        <v>8.7719298245614024</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="5"/>
+        <v>60.776942355889723</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="6"/>
+        <v>6.8922305764411025</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9645,8 +10941,23 @@
         <f t="shared" si="3"/>
         <v>1175</v>
       </c>
+      <c r="AH12">
+        <v>1.768</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="4"/>
+        <v>43.552036199095021</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="5"/>
+        <v>207.01357466063348</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="6"/>
+        <v>664.59276018099547</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9750,8 +11061,23 @@
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
+      <c r="AH13">
+        <v>1.768</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="4"/>
+        <v>79.185520361990953</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="5"/>
+        <v>297.51131221719459</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="6"/>
+        <v>173.07692307692307</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9855,8 +11181,23 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
+      <c r="AH14">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="4"/>
+        <v>7.8922934076137423</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="5"/>
+        <v>100.74280408542248</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="6"/>
+        <v>16.24883936861653</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9960,8 +11301,23 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
+      <c r="AH15">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="4"/>
+        <v>189.41273779983456</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="5"/>
+        <v>618.69313482216705</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="6"/>
+        <v>186.10421836228286</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10065,8 +11421,23 @@
         <f t="shared" si="3"/>
         <v>442</v>
       </c>
+      <c r="AH16">
+        <v>0.31</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="4"/>
+        <v>825.80645161290329</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="5"/>
+        <v>3016.1290322580644</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="6"/>
+        <v>1425.8064516129032</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10170,8 +11541,23 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
+      <c r="AH17">
+        <v>0.31</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>25.806451612903228</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="5"/>
+        <v>77.41935483870968</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="6"/>
+        <v>29.032258064516128</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10275,8 +11661,23 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
+      <c r="AH18">
+        <v>0.31</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="4"/>
+        <v>158.06451612903226</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="5"/>
+        <v>70.967741935483872</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="6"/>
+        <v>35.483870967741936</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10380,8 +11781,23 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="AH19">
+        <v>0.31</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="4"/>
+        <v>29.032258064516128</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="5"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="6"/>
+        <v>9.67741935483871</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10485,8 +11901,23 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="AH20">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="4"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="5"/>
+        <v>1.8796992481203008</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="6"/>
+        <v>1.8796992481203008</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10590,8 +12021,23 @@
         <f t="shared" si="3"/>
         <v>989</v>
       </c>
+      <c r="AH21">
+        <v>1.024</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="4"/>
+        <v>41.015625</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="5"/>
+        <v>76.171875</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="6"/>
+        <v>965.8203125</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10695,8 +12141,23 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
+      <c r="AH22">
+        <v>1.024</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="4"/>
+        <v>108.3984375</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="5"/>
+        <v>272.4609375</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="6"/>
+        <v>86.9140625</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10800,8 +12261,23 @@
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
+      <c r="AH23">
+        <v>0.31</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="4"/>
+        <v>274.19354838709677</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="5"/>
+        <v>664.51612903225805</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="6"/>
+        <v>641.9354838709678</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10905,8 +12381,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH24">
+        <v>1.768</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="4"/>
+        <v>1.1312217194570136</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="5"/>
+        <v>5.0904977375565608</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11010,8 +12501,23 @@
         <f t="shared" si="3"/>
         <v>261</v>
       </c>
+      <c r="AH25">
+        <v>1.768</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="4"/>
+        <v>90.497737556561091</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="5"/>
+        <v>508.48416289592762</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="6"/>
+        <v>147.62443438914028</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11115,8 +12621,23 @@
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
+      <c r="AH26">
+        <v>0.31</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="4"/>
+        <v>290.32258064516128</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="5"/>
+        <v>941.9354838709678</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="6"/>
+        <v>567.74193548387098</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11220,8 +12741,23 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
+      <c r="AH27">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="4"/>
+        <v>7.4280408542246983</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="5"/>
+        <v>29.712163416898793</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="6"/>
+        <v>12.999071494893222</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11325,8 +12861,23 @@
         <f t="shared" si="3"/>
         <v>1778</v>
       </c>
+      <c r="AH28">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="4"/>
+        <v>248.37511606313836</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="5"/>
+        <v>448.46796657381617</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="6"/>
+        <v>825.44103992571968</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11430,8 +12981,23 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
+      <c r="AH29">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="4"/>
+        <v>48.872180451127818</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="5"/>
+        <v>25.062656641604008</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="6"/>
+        <v>34.461152882205511</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11535,8 +13101,23 @@
         <f t="shared" si="3"/>
         <v>497</v>
       </c>
+      <c r="AH30">
+        <v>1.768</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="4"/>
+        <v>39.027149321266968</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="5"/>
+        <v>173.64253393665157</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="6"/>
+        <v>281.10859728506784</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11640,8 +13221,23 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="AH31">
+        <v>1.024</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="4"/>
+        <v>1.953125</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="5"/>
+        <v>6.8359375</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="6"/>
+        <v>0.9765625</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11745,8 +13341,23 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="AH32">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="4"/>
+        <v>3.3085194375516953</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="5"/>
+        <v>4.9627791563275432</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="6"/>
+        <v>3.3085194375516953</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11850,8 +13461,23 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="AH33">
+        <v>1.024</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="5"/>
+        <v>3.90625</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="6"/>
+        <v>2.9296875</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11955,8 +13581,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH34">
+        <v>1.024</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="4"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="5"/>
+        <v>1.953125</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12060,8 +13701,23 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
+      <c r="AH35">
+        <v>1.024</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="4"/>
+        <v>44.921875</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="5"/>
+        <v>198.2421875</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="6"/>
+        <v>50.78125</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12165,8 +13821,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH36">
+        <v>1.768</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12269,6 +13940,21 @@
       <c r="AG37">
         <f t="shared" si="3"/>
         <v>2</v>
+      </c>
+      <c r="AH37">
+        <v>1.768</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="5"/>
+        <v>4.5248868778280542</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="6"/>
+        <v>1.1312217194570136</v>
       </c>
     </row>
   </sheetData>
@@ -12278,15 +13964,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:AF37"/>
+    <sheetView topLeftCell="T1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12383,8 +14072,20 @@
       <c r="AF1" t="s">
         <v>24</v>
       </c>
+      <c r="AG1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -12485,8 +14186,23 @@
         <f>D2+G2+J2+N2+R2+S2+U2+AA2</f>
         <v>480</v>
       </c>
+      <c r="AG2">
+        <v>1.768</v>
+      </c>
+      <c r="AH2">
+        <f>AC2/AG2</f>
+        <v>22.058823529411764</v>
+      </c>
+      <c r="AI2">
+        <f>AD2/AG2</f>
+        <v>141.40271493212668</v>
+      </c>
+      <c r="AJ2">
+        <f>AF2/AG2</f>
+        <v>271.49321266968326</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -12587,8 +14303,23 @@
         <f t="shared" ref="AF3:AF37" si="3">D3+G3+J3+N3+R3+S3+U3+AA3</f>
         <v>43</v>
       </c>
+      <c r="AG3">
+        <v>0.31</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH37" si="4">AC3/AG3</f>
+        <v>29.032258064516128</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI37" si="5">AD3/AG3</f>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ37" si="6">AF3/AG3</f>
+        <v>138.70967741935485</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -12689,8 +14420,23 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
+      <c r="AG4">
+        <v>0.31</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="4"/>
+        <v>151.61290322580646</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="5"/>
+        <v>1603.2258064516129</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="6"/>
+        <v>774.19354838709683</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -12791,8 +14537,23 @@
         <f t="shared" si="3"/>
         <v>507</v>
       </c>
+      <c r="AG5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="4"/>
+        <v>205.51378446115288</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="5"/>
+        <v>783.83458646616532</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="6"/>
+        <v>317.66917293233081</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -12893,8 +14654,23 @@
         <f t="shared" si="3"/>
         <v>673</v>
       </c>
+      <c r="AG6">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>22.748375116063141</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="5"/>
+        <v>49.210770659238626</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="6"/>
+        <v>312.44196843082636</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12995,8 +14771,23 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
+      <c r="AG7">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="4"/>
+        <v>1.6542597187758477</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="5"/>
+        <v>17.369727047146402</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="6"/>
+        <v>5.7899090157154669</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -13097,8 +14888,23 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
+      <c r="AG8">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
+        <v>86.021505376344081</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="5"/>
+        <v>418.52770885028946</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="6"/>
+        <v>157.15467328370553</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -13199,8 +15005,23 @@
         <f t="shared" si="3"/>
         <v>476</v>
       </c>
+      <c r="AG9">
+        <v>1.024</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>76.171875</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="5"/>
+        <v>391.6015625</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="6"/>
+        <v>464.84375</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -13301,8 +15122,23 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
+      <c r="AG10">
+        <v>1.024</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>4.8828125</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="5"/>
+        <v>21.484375</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="6"/>
+        <v>39.0625</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -13403,8 +15239,23 @@
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
+      <c r="AG11">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>20.676691729323306</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="5"/>
+        <v>11.278195488721805</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="6"/>
+        <v>35.714285714285715</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -13505,8 +15356,23 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
+      <c r="AG12">
+        <v>1.768</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>65.610859728506782</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="5"/>
+        <v>639.70588235294122</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="6"/>
+        <v>117.0814479638009</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -13607,8 +15473,23 @@
         <f t="shared" si="3"/>
         <v>604</v>
       </c>
+      <c r="AG13">
+        <v>1.768</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>37.895927601809952</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="5"/>
+        <v>262.44343891402713</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="6"/>
+        <v>341.62895927601812</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -13709,8 +15590,23 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
+      <c r="AG14">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>0.92850510677808729</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="5"/>
+        <v>92.850510677808728</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="6"/>
+        <v>48.282265552460544</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -13811,8 +15707,23 @@
         <f t="shared" si="3"/>
         <v>805</v>
       </c>
+      <c r="AG15">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>100.90984284532671</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="5"/>
+        <v>521.09181141439205</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="6"/>
+        <v>665.83953680727871</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -13913,8 +15824,23 @@
         <f t="shared" si="3"/>
         <v>881</v>
       </c>
+      <c r="AG16">
+        <v>0.31</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>477.41935483870969</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="5"/>
+        <v>2483.8709677419356</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="6"/>
+        <v>2841.9354838709678</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -14015,8 +15941,23 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
+      <c r="AG17">
+        <v>0.31</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>12.903225806451614</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="5"/>
+        <v>35.483870967741936</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="6"/>
+        <v>122.58064516129032</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -14117,8 +16058,23 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
+      <c r="AG18">
+        <v>0.31</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>64.516129032258064</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="6"/>
+        <v>48.387096774193552</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14219,8 +16175,23 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
+      <c r="AG19">
+        <v>0.31</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="5"/>
+        <v>22.580645161290324</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="6"/>
+        <v>38.70967741935484</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14321,8 +16292,23 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="AG20">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>11.278195488721805</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="5"/>
+        <v>3.132832080200501</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="6"/>
+        <v>1.2531328320802004</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -14423,8 +16409,23 @@
         <f t="shared" si="3"/>
         <v>597</v>
       </c>
+      <c r="AG21">
+        <v>1.024</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="4"/>
+        <v>222.65625</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="5"/>
+        <v>411.1328125</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="6"/>
+        <v>583.0078125</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -14525,8 +16526,23 @@
         <f t="shared" si="3"/>
         <v>298</v>
       </c>
+      <c r="AG22">
+        <v>1.024</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="4"/>
+        <v>90.8203125</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="5"/>
+        <v>204.1015625</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="6"/>
+        <v>291.015625</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14627,8 +16643,23 @@
         <f t="shared" si="3"/>
         <v>1084</v>
       </c>
+      <c r="AG23">
+        <v>0.31</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="4"/>
+        <v>483.87096774193549</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="6"/>
+        <v>3496.7741935483873</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14729,8 +16760,23 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
+      <c r="AG24">
+        <v>1.768</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="4"/>
+        <v>2.8280542986425341</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="5"/>
+        <v>1.6968325791855203</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="6"/>
+        <v>4.5248868778280542</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14831,8 +16877,23 @@
         <f t="shared" si="3"/>
         <v>713</v>
       </c>
+      <c r="AG25">
+        <v>1.768</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="4"/>
+        <v>19.796380090497738</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="5"/>
+        <v>457.57918552036199</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="6"/>
+        <v>403.28054298642536</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -14933,8 +16994,23 @@
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
+      <c r="AG26">
+        <v>0.31</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="4"/>
+        <v>309.67741935483872</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="5"/>
+        <v>716.12903225806451</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="6"/>
+        <v>1419.3548387096773</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -15035,8 +17111,23 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
+      <c r="AG27">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="4"/>
+        <v>16.24883936861653</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="5"/>
+        <v>23.676880222841227</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="6"/>
+        <v>17.641597028783661</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -15137,8 +17228,23 @@
         <f t="shared" si="3"/>
         <v>1728</v>
       </c>
+      <c r="AG28">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="4"/>
+        <v>68.709377901578463</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="5"/>
+        <v>477.7158774373259</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="6"/>
+        <v>802.22841225626746</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -15239,8 +17345,23 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
+      <c r="AG29">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="4"/>
+        <v>11.904761904761903</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="5"/>
+        <v>63.909774436090224</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="6"/>
+        <v>30.701754385964911</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -15341,8 +17462,23 @@
         <f t="shared" si="3"/>
         <v>1188</v>
       </c>
+      <c r="AG30">
+        <v>1.768</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="4"/>
+        <v>217.76018099547511</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="5"/>
+        <v>149.88687782805431</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="6"/>
+        <v>671.94570135746608</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -15443,8 +17579,23 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
+      <c r="AG31">
+        <v>1.024</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="5"/>
+        <v>4.8828125</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="6"/>
+        <v>7.8125</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -15545,8 +17696,23 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="AG32">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="4"/>
+        <v>5.7899090157154669</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="5"/>
+        <v>8.2712985938792389</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="6"/>
+        <v>4.9627791563275432</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -15647,8 +17813,23 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="AG33">
+        <v>1.024</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="5"/>
+        <v>2.9296875</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="6"/>
+        <v>2.9296875</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -15749,8 +17930,23 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="AG34">
+        <v>1.024</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="5"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="6"/>
+        <v>3.90625</v>
+      </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -15851,8 +18047,23 @@
         <f t="shared" si="3"/>
         <v>266</v>
       </c>
+      <c r="AG35">
+        <v>1.024</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="4"/>
+        <v>32.2265625</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="5"/>
+        <v>176.7578125</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="6"/>
+        <v>259.765625</v>
+      </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -15953,8 +18164,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AG36">
+        <v>1.768</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -16054,6 +18280,21 @@
       <c r="AF37">
         <f t="shared" si="3"/>
         <v>23</v>
+      </c>
+      <c r="AG37">
+        <v>1.768</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="5"/>
+        <v>3.3936651583710407</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="6"/>
+        <v>13.009049773755656</v>
       </c>
     </row>
   </sheetData>
@@ -16063,15 +18304,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AG37"/>
+    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="34" max="34" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -16171,8 +18415,20 @@
       <c r="AG1" t="s">
         <v>24</v>
       </c>
+      <c r="AH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16276,8 +18532,23 @@
         <f>D2+F2+L2+U2+T2+R2+Q2+X2</f>
         <v>192</v>
       </c>
+      <c r="AH2">
+        <v>1.768</v>
+      </c>
+      <c r="AI2">
+        <f>AD2/AH2</f>
+        <v>108.5972850678733</v>
+      </c>
+      <c r="AJ2">
+        <f>AE2/AH2</f>
+        <v>189.47963800904978</v>
+      </c>
+      <c r="AK2">
+        <f>AG2/AH2</f>
+        <v>108.5972850678733</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16381,8 +18652,23 @@
         <f t="shared" ref="AG3:AG37" si="3">D3+F3+L3+U3+T3+R3+Q3+X3</f>
         <v>0</v>
       </c>
+      <c r="AH3">
+        <v>0.31</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI37" si="4">AD3/AH3</f>
+        <v>12.903225806451614</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ37" si="5">AE3/AH3</f>
+        <v>51.612903225806456</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK37" si="6">AG3/AH3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16486,8 +18772,23 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
+      <c r="AH4">
+        <v>0.31</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="5"/>
+        <v>1135.483870967742</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16591,8 +18892,23 @@
         <f t="shared" si="3"/>
         <v>1628</v>
       </c>
+      <c r="AH5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="4"/>
+        <v>179.82456140350877</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="5"/>
+        <v>605.26315789473676</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="6"/>
+        <v>1020.0501253132832</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16696,8 +19012,23 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
+      <c r="AH6">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="4"/>
+        <v>45.032497678737236</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="5"/>
+        <v>112.8133704735376</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="6"/>
+        <v>32.497678737233059</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16801,8 +19132,23 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="AH7">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="4"/>
+        <v>4.9627791563275432</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="5"/>
+        <v>15.715467328370552</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="6"/>
+        <v>4.9627791563275432</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16906,8 +19252,23 @@
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
+      <c r="AH8">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="4"/>
+        <v>191.06699751861041</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="5"/>
+        <v>421.00909842845323</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="6"/>
+        <v>129.85938792390405</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17011,8 +19372,23 @@
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
+      <c r="AH9">
+        <v>1.024</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="4"/>
+        <v>74.21875</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="5"/>
+        <v>416.015625</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="6"/>
+        <v>197.265625</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17116,8 +19492,23 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
+      <c r="AH10">
+        <v>1.024</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="4"/>
+        <v>12.6953125</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="5"/>
+        <v>47.8515625</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="6"/>
+        <v>19.53125</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17221,8 +19612,23 @@
         <f t="shared" si="3"/>
         <v>833</v>
       </c>
+      <c r="AH11">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="4"/>
+        <v>63.909774436090224</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="5"/>
+        <v>226.81704260651628</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="6"/>
+        <v>521.92982456140351</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17326,8 +19732,23 @@
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
+      <c r="AH12">
+        <v>1.768</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="4"/>
+        <v>102.94117647058823</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="5"/>
+        <v>433.25791855203619</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="6"/>
+        <v>138.00904977375566</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17431,8 +19852,23 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
+      <c r="AH13">
+        <v>1.768</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="4"/>
+        <v>6.7873303167420813</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="5"/>
+        <v>141.40271493212668</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="6"/>
+        <v>16.402714932126695</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17536,8 +19972,23 @@
         <f t="shared" si="3"/>
         <v>371</v>
       </c>
+      <c r="AH14">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="4"/>
+        <v>139.74001857010214</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="5"/>
+        <v>455.89600742804089</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="6"/>
+        <v>172.2376973073352</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17641,8 +20092,23 @@
         <f t="shared" si="3"/>
         <v>452</v>
       </c>
+      <c r="AH15">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="4"/>
+        <v>247.31182795698922</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="5"/>
+        <v>688.17204301075265</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="6"/>
+        <v>373.86269644334158</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17746,8 +20212,23 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="AH16">
+        <v>0.31</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="4"/>
+        <v>6.4516129032258069</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="5"/>
+        <v>96.774193548387103</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="6"/>
+        <v>12.903225806451614</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17851,8 +20332,23 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
+      <c r="AH17">
+        <v>0.31</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>6.4516129032258069</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="5"/>
+        <v>48.387096774193552</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="6"/>
+        <v>35.483870967741936</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17956,8 +20452,23 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="AH18">
+        <v>0.31</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="4"/>
+        <v>12.903225806451614</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="5"/>
+        <v>35.483870967741936</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="6"/>
+        <v>3.2258064516129035</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -18061,8 +20572,23 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="AH19">
+        <v>0.31</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="5"/>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="6"/>
+        <v>6.4516129032258069</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -18166,8 +20692,23 @@
         <f t="shared" si="3"/>
         <v>579</v>
       </c>
+      <c r="AH20">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="4"/>
+        <v>36.967418546365913</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="5"/>
+        <v>314.53634085213031</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="6"/>
+        <v>362.78195488721803</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -18271,8 +20812,23 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
+      <c r="AH21">
+        <v>1.024</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="4"/>
+        <v>93.75</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="5"/>
+        <v>309.5703125</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="6"/>
+        <v>125.9765625</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -18376,8 +20932,23 @@
         <f t="shared" si="3"/>
         <v>273</v>
       </c>
+      <c r="AH22">
+        <v>1.024</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="4"/>
+        <v>105.46875</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="5"/>
+        <v>328.125</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="6"/>
+        <v>266.6015625</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -18481,8 +21052,23 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="AH23">
+        <v>0.31</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="4"/>
+        <v>12.903225806451614</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="5"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="6"/>
+        <v>3.2258064516129035</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -18586,8 +21172,23 @@
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
+      <c r="AH24">
+        <v>1.768</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="4"/>
+        <v>140.83710407239818</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="5"/>
+        <v>579.75113122171945</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="6"/>
+        <v>162.89592760180994</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -18691,8 +21292,23 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
+      <c r="AH25">
+        <v>1.768</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="4"/>
+        <v>65.610859728506782</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="5"/>
+        <v>194.00452488687782</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="6"/>
+        <v>118.77828054298642</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -18796,8 +21412,23 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
+      <c r="AH26">
+        <v>0.31</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="4"/>
+        <v>22.580645161290324</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="5"/>
+        <v>209.67741935483872</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="6"/>
+        <v>103.22580645161291</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18901,8 +21532,23 @@
         <f t="shared" si="3"/>
         <v>962</v>
       </c>
+      <c r="AH27">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="4"/>
+        <v>214.48467966573816</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="5"/>
+        <v>535.28319405756736</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="6"/>
+        <v>446.61095636025999</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -19006,8 +21652,23 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
+      <c r="AH28">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="4"/>
+        <v>10.677808727948005</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="5"/>
+        <v>6.035283194057568</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="6"/>
+        <v>18.570102135561747</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -19111,8 +21772,23 @@
         <f t="shared" si="3"/>
         <v>406</v>
       </c>
+      <c r="AH29">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="4"/>
+        <v>21.929824561403507</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="5"/>
+        <v>149.74937343358394</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="6"/>
+        <v>254.38596491228068</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -19216,8 +21892,23 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="AH30">
+        <v>1.768</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="4"/>
+        <v>0.56561085972850678</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="5"/>
+        <v>1.1312217194570136</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="6"/>
+        <v>1.1312217194570136</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -19321,8 +22012,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH31">
+        <v>1.024</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="4"/>
+        <v>3.90625</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="5"/>
+        <v>12.6953125</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19426,8 +22132,23 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="AH32">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="4"/>
+        <v>4.9627791563275432</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="5"/>
+        <v>4.1356492969396195</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="6"/>
+        <v>1.6542597187758477</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19531,8 +22252,23 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
+      <c r="AH33">
+        <v>1.024</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="4"/>
+        <v>30.2734375</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="5"/>
+        <v>190.4296875</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="6"/>
+        <v>56.640625</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19636,8 +22372,23 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
+      <c r="AH34">
+        <v>1.024</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="4"/>
+        <v>10.7421875</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="5"/>
+        <v>79.1015625</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="6"/>
+        <v>35.15625</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19741,8 +22492,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH35">
+        <v>1.024</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19846,8 +22612,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AH36">
+        <v>1.768</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19949,6 +22730,21 @@
       </c>
       <c r="AG37">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>1.768</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="4"/>
+        <v>1.1312217194570136</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="5"/>
+        <v>19.796380090497738</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19959,15 +22755,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:AF37"/>
+    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="32" max="32" width="9.140625" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -20064,8 +22864,20 @@
       <c r="AF1" t="s">
         <v>24</v>
       </c>
+      <c r="AG1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20166,8 +22978,23 @@
         <f>E2+K2+P2+Q2+S2+T2+W2</f>
         <v>144</v>
       </c>
+      <c r="AG2">
+        <v>1.768</v>
+      </c>
+      <c r="AH2">
+        <f>AC2/AG2</f>
+        <v>111.99095022624434</v>
+      </c>
+      <c r="AI2">
+        <f>AD2/AG2</f>
+        <v>220.02262443438914</v>
+      </c>
+      <c r="AJ2">
+        <f>AF2/AG2</f>
+        <v>81.447963800904972</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20268,8 +23095,23 @@
         <f t="shared" ref="AF3:AF37" si="3">E3+K3+P3+Q3+S3+T3+W3</f>
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0.31</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH37" si="4">AC3/AG3</f>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI37" si="5">AD3/AG3</f>
+        <v>45.161290322580648</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ37" si="6">AF3/AG3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20370,8 +23212,23 @@
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
+      <c r="AG4">
+        <v>0.31</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="4"/>
+        <v>112.90322580645162</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="5"/>
+        <v>1380.6451612903227</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="6"/>
+        <v>422.58064516129031</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20472,8 +23329,23 @@
         <f t="shared" si="3"/>
         <v>778</v>
       </c>
+      <c r="AG5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="4"/>
+        <v>175.43859649122805</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="5"/>
+        <v>617.79448621553877</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="6"/>
+        <v>487.468671679198</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20574,8 +23446,23 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
+      <c r="AG6">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>54.781801299907151</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="5"/>
+        <v>110.49210770659239</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="6"/>
+        <v>42.246982358402974</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20676,8 +23563,23 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="AG7">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="4"/>
+        <v>4.9627791563275432</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="5"/>
+        <v>9.9255583126550864</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="6"/>
+        <v>1.6542597187758477</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20778,8 +23680,23 @@
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
+      <c r="AG8">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
+        <v>192.72125723738625</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="5"/>
+        <v>452.44003308519433</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="6"/>
+        <v>115.79818031430933</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20880,8 +23797,23 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
+      <c r="AG9">
+        <v>1.024</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="5"/>
+        <v>367.1875</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="6"/>
+        <v>106.4453125</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20982,8 +23914,23 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
+      <c r="AG10">
+        <v>1.024</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>13.671875</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="5"/>
+        <v>43.9453125</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="6"/>
+        <v>9.765625</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21084,8 +24031,23 @@
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
+      <c r="AG11">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>67.042606516290718</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="5"/>
+        <v>209.89974937343356</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="6"/>
+        <v>170.42606516290726</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21186,8 +24148,23 @@
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
+      <c r="AG12">
+        <v>1.768</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>115.38461538461539</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="5"/>
+        <v>402.14932126696834</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="6"/>
+        <v>106.90045248868778</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -21288,8 +24265,23 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
+      <c r="AG13">
+        <v>1.768</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="5"/>
+        <v>136.31221719457014</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="6"/>
+        <v>17.533936651583709</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -21390,8 +24382,23 @@
         <f t="shared" si="3"/>
         <v>286</v>
       </c>
+      <c r="AG14">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>152.73909006499537</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="5"/>
+        <v>417.82729805013929</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="6"/>
+        <v>132.77623026926648</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -21492,8 +24499,23 @@
         <f t="shared" si="3"/>
         <v>426</v>
       </c>
+      <c r="AG15">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>290.32258064516128</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="5"/>
+        <v>730.35566583953675</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="6"/>
+        <v>352.35732009925556</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21594,8 +24616,23 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="AG16">
+        <v>0.31</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="5"/>
+        <v>64.516129032258064</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="6"/>
+        <v>12.903225806451614</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -21696,8 +24733,23 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
+      <c r="AG17">
+        <v>0.31</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="5"/>
+        <v>61.29032258064516</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="6"/>
+        <v>35.483870967741936</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -21798,8 +24850,23 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="AG18">
+        <v>0.31</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>25.806451612903228</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="5"/>
+        <v>29.032258064516128</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="6"/>
+        <v>3.2258064516129035</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -21900,8 +24967,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AG19">
+        <v>0.31</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="5"/>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -22002,8 +25084,23 @@
         <f t="shared" si="3"/>
         <v>401</v>
       </c>
+      <c r="AG20">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>41.979949874686717</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="5"/>
+        <v>429.82456140350877</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="6"/>
+        <v>251.25313283208018</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -22104,8 +25201,23 @@
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
+      <c r="AG21">
+        <v>1.024</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="4"/>
+        <v>90.8203125</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="5"/>
+        <v>335.9375</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="6"/>
+        <v>135.7421875</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -22206,8 +25318,23 @@
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
+      <c r="AG22">
+        <v>1.024</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="4"/>
+        <v>122.0703125</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="5"/>
+        <v>351.5625</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="6"/>
+        <v>277.34375</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -22308,8 +25435,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AG23">
+        <v>0.31</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="4"/>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="5"/>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -22410,8 +25552,23 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
+      <c r="AG24">
+        <v>1.768</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="4"/>
+        <v>138.00904977375566</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="5"/>
+        <v>575.79185520361989</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="6"/>
+        <v>107.46606334841628</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -22512,8 +25669,23 @@
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
+      <c r="AG25">
+        <v>1.768</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="4"/>
+        <v>78.054298642533936</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="5"/>
+        <v>216.06334841628959</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="6"/>
+        <v>113.68778280542986</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -22614,8 +25786,23 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
+      <c r="AG26">
+        <v>0.31</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="4"/>
+        <v>12.903225806451614</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="5"/>
+        <v>254.83870967741936</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="6"/>
+        <v>70.967741935483872</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -22716,8 +25903,23 @@
         <f t="shared" si="3"/>
         <v>454</v>
       </c>
+      <c r="AG27">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="4"/>
+        <v>189.41504178272982</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="5"/>
+        <v>361.65273909006498</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="6"/>
+        <v>210.77065923862583</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -22818,8 +26020,23 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
+      <c r="AG28">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="4"/>
+        <v>4.6425255338904368</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="5"/>
+        <v>6.035283194057568</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="6"/>
+        <v>7.8922934076137423</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -22920,8 +26137,23 @@
         <f t="shared" si="3"/>
         <v>292</v>
       </c>
+      <c r="AG29">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="4"/>
+        <v>23.809523809523807</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="5"/>
+        <v>114.66165413533834</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="6"/>
+        <v>182.95739348370927</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -23022,8 +26254,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AG30">
+        <v>1.768</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="4"/>
+        <v>1.6968325791855203</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="5"/>
+        <v>6.2217194570135748</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -23124,8 +26371,23 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="AG31">
+        <v>1.024</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="4"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="5"/>
+        <v>3.90625</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="6"/>
+        <v>5.859375</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -23226,8 +26488,23 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="AG32">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="5"/>
+        <v>7.4441687344913143</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="6"/>
+        <v>2.4813895781637716</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -23328,8 +26605,23 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
+      <c r="AG33">
+        <v>1.024</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="4"/>
+        <v>34.1796875</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="5"/>
+        <v>192.3828125</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="6"/>
+        <v>89.84375</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -23430,8 +26722,23 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
+      <c r="AG34">
+        <v>1.024</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="4"/>
+        <v>13.671875</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="5"/>
+        <v>64.453125</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="6"/>
+        <v>16.6015625</v>
+      </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -23532,8 +26839,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AG35">
+        <v>1.024</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -23634,8 +26956,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AG36">
+        <v>1.768</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -23735,6 +27072,21 @@
       <c r="AF37">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>1.768</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="4"/>
+        <v>0.56561085972850678</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="5"/>
+        <v>6.7873303167420813</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="6"/>
+        <v>0.56561085972850678</v>
       </c>
     </row>
   </sheetData>
